--- a/results/2019年第4季.xlsx
+++ b/results/2019年第4季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7569 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>358</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,675,905</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,569,025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>818,143</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>609,748</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>887,116</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-263,106</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6,642</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>879,643</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,643,496</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,161,936</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>6,647,115</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7,334,296</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,645,430</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,786,145</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,497,330</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3,256,274</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-779,767</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-1,042,168</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2,954,039</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>13,259,979</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>13,418,411</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>42,792,112</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>87</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15,242,596</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5,344,112</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,746,984</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2,500,870</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4,650,879</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-8,645,218</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-678,951</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1,598,234</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>60,767,455</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>40,276,715</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>109,383,496</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13,173,394</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3,480,270</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,343,150</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,250,420</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1,018,319</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-180,395</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-3,073</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>762,280</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9,448,152</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3,282,950</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>38,636,780</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>860</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>722,958</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>452,198</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>292,835</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>232,762</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>304,447</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-33,152</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-354,078</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>278,159</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>785,508</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>123,198</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3,418,894</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>302</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22,250,426</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,328,268</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,376,537</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,067,003</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,304,735</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-246,091</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-811,728</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,212,944</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>26,137,389</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,513,328</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50,056,924</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,375</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-135,529</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-173,363</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-108,870</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>132,227</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-4,089</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-118,532</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>520,961</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-2.65</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-2.42</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>640,443</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>6,979,654</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>298</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6,903,636</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,052,239</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,328,786</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,839,648</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3,057,444</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1,286,306</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-793,878</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1,356,663</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12,286,570</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>17,866,310</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>42,126,102</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>209</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,787,236</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>542,267</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>277,972</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>212,414</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>456,430</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-287,198</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-26,072</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>182,740</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3,999,925</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1,498,594</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>7,523,573</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,256,125</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,718,965</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,366,836</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>910,670</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3,193,394</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-648,120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-907,138</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2,524,851</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10,527,161</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>16,697,117</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40,218,822</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,598,276</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>691,222</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>256,642</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>865,912</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1,044,407</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>107,110</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-414,132</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>345,018</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10,023,367</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8,767,246</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>18,650,361</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5,140,329</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-108,302</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-696,277</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>604,702</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-6,785,073</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>659,839</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6,638,935</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-8,533,029</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>29,274,626</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>20,275,279</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>96,468,490</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>171,141</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28,819</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-35,075</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-9,795</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>56,474</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-16,812</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-20,872</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>40,644</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>715,422</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>349,999</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,339,834</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>219</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20,112,105</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,557,497</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>687,016</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>508,636</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-1,333,134</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-672,047</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-1,666,613</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-2,046,121</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>50,916,149</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11,752,316</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>57,212,327</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>173</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>717,966</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>241,298</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48,144</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>39,739</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>27,158</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-153,351</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>460,129</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-74,562</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,934,852</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>849,274</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4,821,577</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,141,656</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>741,574</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>490,741</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>317,057</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,084,020</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-749,978</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-549,305</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>329,037</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7,246,915</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>11,042,686</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>18,577,209</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4,014,607</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,106,348</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>246,386</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-90,766</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1,689,662</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-240,374</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-538,740</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1,624,272</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>13,361,173</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2,546,602</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>30,536,814</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,827,744</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>463,934</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35,560</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>34,374</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-11,773</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-96,890</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-63,926</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-105,248</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3,455,603</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>569,754</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>4,678,080</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,396,241</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>299,774</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>215,813</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>196,220</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>554,452</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-84,468</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-530,814</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>471,626</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,877,972</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3,439,913</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>6,168,781</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>645,858</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>185,187</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>47,181</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-18,143</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-12,792</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-112,974</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>69,798</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-418,988</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1,091,888</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1,129,270</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3,591,708</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2,442,498</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>448,127</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>221,454</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>159,921</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>379,315</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-113,993</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>131,449</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>258,528</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5,557,562</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,209,926</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10,543,972</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>73,228</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>56,437</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1,779</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>7,447</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-11,122</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7,434</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-1,914</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>116,417</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>136,142</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>533,261</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>106</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>780,532</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>251,772</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>190,825</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>145,635</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>266,741</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-137,267</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>58,706</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>103,624</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1,002,003</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,374,266</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4,002,671</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,518,876</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>657,883</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>177,578</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>148,451</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>494,852</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-161,227</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-78,905</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>341,000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,799,056</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,933,943</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>8,178,901</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,737,488</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>634,533</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>175,563</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>157,262</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>282,488</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-473,749</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>363,124</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-277,815</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>8,264,192</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5,278,480</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>13,234,046</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,124,091</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>607,838</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-74,082</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-243,525</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1,573,923</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>960,834</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-2,551,263</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1,556,482</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>16,596,952</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-3.08</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,506,264</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>24,465,165</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>160,374</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>138,324</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64,085</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-95,783</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-221,910</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>123,124</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-1,260</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-221,910</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>278,435</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-8.76</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-7.34</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>5,139</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1,324,311</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4,926,743</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-798,780</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-948,805</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,022,739</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3,878,008</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-135,863</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-704,673</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>3,641,631</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>28,618,929</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-14.75</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-2.99</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,955,512</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>35,076,187</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>152</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,828,907</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>573,111</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>334,377</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>234,997</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>325,716</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>89,999</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-108,404</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>285,729</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,152,429</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,373,991</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5,647,449</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1,173,111</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>164,654</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>50,660</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>31,502</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>131,469</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-27,322</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-206,211</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>130,376</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2,409,031</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>895,564</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,958,604</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,821,332</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,397,458</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-118,056</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-164,808</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>329,575</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-2,299,755</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1,332,938</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-774,272</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>25,881,492</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,050,453</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>41,122,217</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>60,668</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-9,944</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-15,481</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-7,582</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-90,009</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>7,826</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-209</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-94,713</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>220,623</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>350,791</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,577,780</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>39</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>194,241</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>76,642</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21,820</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>20,400</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>25,870</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-1,972</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-6,306</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>24,261</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>244,628</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>189,770</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>730,985</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>84,435,087</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2,946,134</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-590,787</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-705,946</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,258,648</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,757,485</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-7,782,531</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4,769,308</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>334,417,471</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>390,063,303</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>666,631,981</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,350,755</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-110,224</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-168,480</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-210,424</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>68,828</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-898,106</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>872,283</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-893,606</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>17,192,507</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.38</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>18,946,254</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>23,561,638</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>642,542</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-1,840</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-14,947</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12,762</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>141,886</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-95,349</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>198,796</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>46,537</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,618,081</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>871,860</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,295,652</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>565,011</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>315,099</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51,835</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>50,149</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>238,338</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-5,044</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-195,151</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>231,503</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1,696,163</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>795,419</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2,705,125</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1,350,111</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>384,483</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>265,431</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>206,876</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>624,216</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>4,121</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-872,678</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>622,980</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>6,900,441</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,771</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>9,597,525</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>226,498</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27,102</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-2,492</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-3,435</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>55,882</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-3,000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-31,549</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>51,466</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>516,255</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>232,052</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,246,885</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>349,420</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>58,513</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13,606</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10,798</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>103,411</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-17,595</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>6,115</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>103,624</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>234,638</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>233,346</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,661,422</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>354,651</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>92,815</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26,990</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>11,174</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37,541</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-21,342</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-47,400</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>34,869</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>930,812</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>754,513</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,982,344</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>324,606</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5,791</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-80,100</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-93,869</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-72,959</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-21,694</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-31,320</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-99,545</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,580,603</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-6.79</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-3.11</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>522,583</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,914,646</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>624,373</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>122,917</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>56,833</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>19,178</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>17,577</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-422,786</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>412,417</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-432,123</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2,278,480</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1,631,876</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3,650,751</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,796,274</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,319,200</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>48,276</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>58,523</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>858,483</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-229,373</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-572,794</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>648,020</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>12,153,148</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>9,780,396</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19,096,943</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>853,770</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>244,043</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-21,513</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-44,977</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>399,219</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-10,744</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-38,982</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>376,810</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,456,720</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,987,712</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12,895,986</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>104,623,948</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>33,685,305</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4,072,593</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4,439,071</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10,202,545</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-926,583</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-12,117,257</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>7,207,119</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>303,449,968</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>130,387,562</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>477,455,273</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1,873,359</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6,427</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-407,034</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-2,058,248</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>416,379</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-243,271</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-70,929</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>338,797</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9,787,139</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-16.86</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-9.09</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>10,264,640</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>20,955,390</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1,520,481</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>69,757</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-205,934</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>53,380</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>162,105</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>152,950</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>878,864</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>115,260</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>5,924,492</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6,329,013</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>25,458,140</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>65,577,916</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-1,381,734</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-7,132,465</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-6,858,965</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>12,770,093</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-6,696,835</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-6,876,794</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>8,240,907</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>137,654,317</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-2.89</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>194,382,436</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>369,764,346</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13,115,509</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,376,751</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,439,950</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1,285,869</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,797,524</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-2,694,826</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-31,394</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,957,110</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>13,089,099</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>85,530,112</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>165,100,652</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>673,875</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>171,566</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73,431</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-13,421</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>135,025</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-62,625</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>23,667</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>133,688</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,731,940</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-1.08</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,331,737</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>8,966,545</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,740,932,341</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>112,577,327</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>49,747,770</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>56,176,525</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>112,053,565</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>46,665,916</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-68,472,784</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>93,410,559</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,921,316,281</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>287,523,253</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3,320,941,698</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,267,378</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>300,938</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86,622</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>92,180</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-183,033</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1,064,087</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>181,992</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>347,412</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>16,434,206</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,040,776</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>28,035,252</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11,785,562</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,728,789</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,734,668</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>846,016</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>7,604,363</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,061,005</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-739,191</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>7,397,199</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>91,607,298</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>34,323,257</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>130,511,105</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>717,592</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>237,581</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-7,674</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-1,138,290</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-284,394</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4,750,186</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1,121,703</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-293,467</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>34,290,005</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,250,782</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>118,615,621</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-2.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>150,995</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15,133</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1,458</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>32,017</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>24,644</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-3,172</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>23,061</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>153,969</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>352,209</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,455,705</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,171,622</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,107,381</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>604,999</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>536,882</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>820,899</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-125,997</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-1,322,206</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>370,396</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>31,876,994</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>17,435,546</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>53,796,729</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>26,620,462</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5,654,836</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1,350,115</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>449,765</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4,018,843</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,355,524</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-473,706</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1,654,815</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>86,069,542</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>95,889,585</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>164,040,229</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>113</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>55,232,565</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18,047,240</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>9,930,667</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,034,737</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>23,580,842</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-12,906,257</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-682,424</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>15,771,667</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>91,064,473</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>283,694,215</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>477,458,238</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4,678,370</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>702,221</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99,246</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>65,959</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>380,135</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3,209,051</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-1,505</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>348,298</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10,953,074</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,231,397</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>25,000,368</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>37,188</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>23,342</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-32,111</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-298,952</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>15,490</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1,813</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>20,427</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>15,491</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>13,014,043</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-4.12</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20,106,421</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>96</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>150,770,977</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11,812,161</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8,895,548</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7,096,534</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>12,381,134</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-2,640,064</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-1,321,317</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>9,906,703</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>64,029,788</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>102,230,648</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>398,031,793</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2,043,190</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>720,480</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>55,104</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>70,309</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>184,269</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-238,371</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>98,413</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,638,552</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,235,151</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>11,577,905</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3,128,274</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1,174,114</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>249,274</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>139,245</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>248,075</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-316,274</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>68,440</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>131,654</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10,174,098</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,872,776</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>17,917,927</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,843,980</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,485,245</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>633,451</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>467,759</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,832,922</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-741,284</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-920,567</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1,484,417</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>14,366,513</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>20,386,583</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>37,105,350</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,703,313</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,278,351</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>556,916</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2,217,114</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-513,158</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1,804,310</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-13,712</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-497,071</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>6,998,082</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,934,280</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>28,571,406</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,095,900</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>232,517</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86,175</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>73,230</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>318,663</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-53,774</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-157,698</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>263,451</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>6,643,793</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>9,970,017</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>12,576,021</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>47,924,511</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,522,482</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>883,695</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-326,756</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>6,905,936</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-4,982,608</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-3,753,634</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>5,643,380</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>233,000,792</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>108,393,511</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>306,595,638</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>922,849</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>24,388</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-27,484</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-162,982</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>327,205</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-84,388</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-287,604</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>270,560</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>19,562,503</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-3.25</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>22,607,590</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>24,362,087</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>59,794,147</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9,732,369</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2,178,386</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,431,210</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>8,656,309</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-9,943,073</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>23,720,107</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2,733,638</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>304,758,516</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>163,017,162</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>576,079,699</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>172,670</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3,112</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-19,029</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>49,344</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>13,659</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>210,117</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-95,340</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-26,830</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,476,730</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,651,141</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,574,578</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>695,403</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>202,609</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75,727</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>56,549</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>151,936</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-73,274</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>27,207</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>113,723</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>834,748</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1,189,276</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,528,005</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>41,849,058</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,968,342</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,017,591</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3,155,367</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>37,532,530</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-17,843,519</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-9,715,906</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>34,008,981</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>162,972,943</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>150,374,096</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>370,187,365</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,153,957</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>306,113</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>147,232</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>72,836</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>552,029</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-152,481</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-97,889</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>401,598</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,424,904</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,566,765</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,396,570</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1,022,910</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>83,209</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-133,546</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>46,509</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>307,237</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-103,923</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-36,074</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>189,099</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2,604,912</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,546,919</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>5,726,370</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>7,147,139</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2,198,298</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1,394,272</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1,011,551</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3,478,426</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,200,999</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-639,908</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1,109,749</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>28,880,695</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>36,890,887</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>55,079,149</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>93,279,381</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4,171,248</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2,008,982</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2,076,260</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-2,570,079</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>3,793,901</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-1,368,237</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-2,636,533</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>95,743,688</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,349,364</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>147,689,360</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4,266,982</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>729,547</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78,670</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>50,477</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-341,155</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-2,199</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-207,309</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-345,645</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>8,519,400</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,164,858</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13,184,720</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14,015,956</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,031,617</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>357,123</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>331,210</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,799,111</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-877,391</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-86,277</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1,674,992</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21,126,271</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>3,800,494</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>34,410,874</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>11,528,475</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>392,474</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>153,402</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>76,350</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>886,419</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-3,819</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-1,063,375</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>884,731</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>8,094,153</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>297,344</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11,057,878</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>776,928</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>277,188</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20,509</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>51,578</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>148,204</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-114,123</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>13,386</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>37,331</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,495,645</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,429,318</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,169,694</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>622,234</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>263,411</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>40,703</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-53,072</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>189,775</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-26,635</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-112,087</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>171,105</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10,388,635</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-3.23</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,225,312</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12,007,458</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>169</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,703,705</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>565,955</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>343,031</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>337,733</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1,097,893</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-44,168</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-846,464</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>987,077</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>7,773,981</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,664,508</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>11,332,199</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>260,663</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>230,612</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-63,887</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-453,913</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>31,988</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-233,158</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-67,467</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-206,665</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,627,472</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-34.01</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-7.24</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>646,482</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>5,741,354</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>192</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18,993,373</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4,503,169</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,837,632</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,512,833</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,917,440</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-1,844,292</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-208,998</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,048,882</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>22,532,761</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>17,681,337</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>41,265,902</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15,754,809</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,262,679</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>930,687</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>690,281</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-896,458</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-2,233,330</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-267,131</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-2,070,012</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>35,565,988</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>10,587,542</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>59,030,150</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>27</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,059,768</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2,485,787</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>660,892</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>656,765</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,634,600</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>86,076</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-327,911</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,275,226</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>37,389,614</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>16,742,830</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>99,094,404</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,360,862</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>201,209</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>54,488</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>75,581</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>270,358</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-13,442</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-435,359</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>261,451</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,697,340</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,008,812</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,797,540</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6,560,174</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,202,181</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>324,207</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>384,679</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>348,507</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-216,163</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-638,006</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>45,517</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>16,084,598</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,739,312</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>40,759,003</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>21,705,835</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-2,415,299</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-6,433,755</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>19,137,741</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>267,889,075</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>19,972,347</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>382,648,419</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>229</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>97,288,885</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14,466,714</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2,276,288</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2,883,608</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>22,516,543</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-1,909,829</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-218,549</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>21,182,693</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>168,717,319</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>22,354,443</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>352,004,111</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>45,862,199</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5,872,487</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,345,978</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>826,064</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2,629,932</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-2,443,920</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-468,363</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1,904,311</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>87,990,899</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>23,915,978</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>136,026,493</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>300</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13,485,776</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5,267,892</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2,409,909</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,703,341</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,078,402</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-474,610</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-57,425</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>579,935</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14,484,619</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,732,490</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>47,216,079</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15,772,072</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,394,757</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>310,284</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>400,840</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>597,657</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-78,575</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-129,616</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>349,236</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13,358,430</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,085,922</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>37,711,541</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>222,844</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>98,355</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>38,473</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>33,400</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>71,704</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>35,084</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-4,396</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>70,706</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>488,391</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>7,017</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,234,382</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,982,873</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>309,138</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>124,624</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>100,481</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>20,379</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-1,266</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>9,422</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>20,261</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,266,222</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>995,883</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>7,873,279</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>82</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>845,805</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>456,621</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>151,502</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>126,548</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>307,301</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-4,935</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-6,143</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>306,781</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>742,953</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>7,931</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,195,245</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
